--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_7.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1071070.667918244</v>
+        <v>-1032815.982175626</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17424043.67672896</v>
+        <v>16759483.4356938</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10025092.03215923</v>
+        <v>10029754.59874676</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>249.2512431917297</v>
       </c>
       <c r="C2" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>259.0293923827435</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>46.3620404065257</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -820,7 +820,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>107.4641456954922</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>54.82081814646273</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,16 +899,16 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>317.8227870144767</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>362.0985297286871</v>
       </c>
     </row>
     <row r="6">
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>34.96581069836606</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>77.62164701214547</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1133,10 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>392.3098957640743</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
@@ -1148,7 +1148,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>31.03917379046086</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>111.1875004229814</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1297,13 +1297,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1345,16 +1345,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>125.1716544454846</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1382,13 +1382,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>328.263346313882</v>
+        <v>169.6712868413747</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,16 +1427,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1540,13 +1540,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>124.4124267272025</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>103.8284742946029</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1619,7 +1619,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -1780,7 +1780,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1822,7 +1822,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>5.990622819018522</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800599</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1898,7 +1898,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2005,22 +2005,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>102.8562685532414</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244263</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735226201</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2144,7 +2144,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864836</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2242,7 +2242,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>191.298713132443</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>78.47678022721476</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2491,7 +2491,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>16.05512456153167</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>173.7040795765152</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>280.9390873188498</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2965,10 +2965,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>172.6623007436915</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C34" t="n">
         <v>154.6003840628599</v>
@@ -3196,16 +3196,16 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F34" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G34" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H34" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I34" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432362</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.967932742934455</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S34" t="n">
         <v>141.4132446762359</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C37" t="n">
         <v>154.6003840628599</v>
@@ -3433,16 +3433,16 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F37" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G37" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277814</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432395</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934455</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S37" t="n">
         <v>141.4132446762359</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3569,7 +3569,7 @@
         <v>398.715328447735</v>
       </c>
       <c r="Y38" t="n">
-        <v>387.9675521245954</v>
+        <v>387.9675521245957</v>
       </c>
     </row>
     <row r="39">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C40" t="n">
         <v>154.6003840628599</v>
@@ -3670,16 +3670,16 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F40" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G40" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277814</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432343</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934455</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C43" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D43" t="n">
-        <v>147.9835025317451</v>
+        <v>147.9835025317452</v>
       </c>
       <c r="E43" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F43" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G43" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934451</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C46" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D46" t="n">
-        <v>147.9835025317451</v>
+        <v>147.9835025317452</v>
       </c>
       <c r="E46" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F46" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G46" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934451</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1348.708787519165</v>
+        <v>1037.128373863172</v>
       </c>
       <c r="C2" t="n">
-        <v>920.1271132564331</v>
+        <v>608.5466996004404</v>
       </c>
       <c r="D2" t="n">
-        <v>491.5454389937014</v>
+        <v>346.9008487087803</v>
       </c>
       <c r="E2" t="n">
-        <v>461.8110981924006</v>
+        <v>346.9008487087803</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4328,7 +4328,7 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K2" t="n">
         <v>453.9965675465116</v>
@@ -4340,13 +4340,13 @@
         <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="O2" t="n">
         <v>687.9235674375537</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>1107.976466382457</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1528.02936532736</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4361,19 +4361,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1391.130783552459</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1390.315733003896</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X2" t="n">
-        <v>1375.213673623611</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y2" t="n">
-        <v>1370.967953963668</v>
+        <v>1288.897306380071</v>
       </c>
     </row>
     <row r="3">
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>777.3658326657497</v>
+        <v>943.243825464227</v>
       </c>
       <c r="C4" t="n">
-        <v>604.8041211489747</v>
+        <v>770.682113947452</v>
       </c>
       <c r="D4" t="n">
         <v>604.8041211489747</v>
@@ -4486,52 +4486,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>89.90148899448771</v>
       </c>
       <c r="L4" t="n">
-        <v>761.43086230084</v>
+        <v>89.90148899448771</v>
       </c>
       <c r="M4" t="n">
-        <v>1181.483761245743</v>
+        <v>509.954387939391</v>
       </c>
       <c r="N4" t="n">
-        <v>1181.483761245743</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1588.633787963759</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1342.754341542214</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1064.321340795319</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="V4" t="n">
-        <v>777.3658326657497</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="W4" t="n">
-        <v>777.3658326657497</v>
+        <v>998.6183892485328</v>
       </c>
       <c r="X4" t="n">
-        <v>777.3658326657497</v>
+        <v>943.243825464227</v>
       </c>
       <c r="Y4" t="n">
-        <v>777.3658326657497</v>
+        <v>943.243825464227</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>442.640221925911</v>
+        <v>1382.40479733442</v>
       </c>
       <c r="C5" t="n">
-        <v>408.5381531497384</v>
+        <v>1348.302728558248</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>1316.433347773096</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>882.6586029313916</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>454.7911733405993</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386317</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386317</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386317</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6480294167811</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.390636219588</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.2716406787</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.2716406787</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.2716406787</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.2716406787</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.014247481507</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.513033440101</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2669.667098193158</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2669.667098193158</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.599871066197</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2190.377568383214</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2190.377568383214</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>2189.562517834651</v>
       </c>
       <c r="X5" t="n">
-        <v>873.1855120707613</v>
+        <v>1770.420054413962</v>
       </c>
       <c r="Y5" t="n">
-        <v>464.8993883704147</v>
+        <v>1404.663963778924</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5650869551559</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1086257917983</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0183369383515</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.8979222653052</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5140838814668</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.1289941476507</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386317</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.45701512432076</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0153400905331</v>
       </c>
       <c r="K6" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.721386716257</v>
       </c>
       <c r="L6" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.721386716257</v>
       </c>
       <c r="M6" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.721386716257</v>
       </c>
       <c r="N6" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.721386716257</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.721386716257</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.721386716257</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.460325348332</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.633103442672</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.177665891055</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1522.999022221657</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.662475221625</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.544957283624</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2222030168184</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3547672556983</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8689880349191</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>376.2419976140245</v>
+        <v>762.5013257079709</v>
       </c>
       <c r="C7" t="n">
-        <v>376.2419976140245</v>
+        <v>589.9396141911958</v>
       </c>
       <c r="D7" t="n">
-        <v>376.2419976140245</v>
+        <v>424.0616213927185</v>
       </c>
       <c r="E7" t="n">
-        <v>376.2419976140245</v>
+        <v>254.3036176434558</v>
       </c>
       <c r="F7" t="n">
-        <v>199.5349435757807</v>
+        <v>254.3036176434558</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>88.71234266928343</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386317</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386317</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.973027128553</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>414.7314816996886</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>832.9413634676497</v>
       </c>
       <c r="M7" t="n">
-        <v>813.4916901053949</v>
+        <v>1292.425230648563</v>
       </c>
       <c r="N7" t="n">
-        <v>813.4916901053949</v>
+        <v>1734.684033806207</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.353283031989</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.860177002331</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2669.667098193158</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2669.667098193158</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2510.425729491155</v>
       </c>
       <c r="T7" t="n">
-        <v>1292.062614956869</v>
+        <v>2264.54628306961</v>
       </c>
       <c r="U7" t="n">
-        <v>1013.629614209975</v>
+        <v>1986.113282322715</v>
       </c>
       <c r="V7" t="n">
-        <v>726.6741060804052</v>
+        <v>1699.157774193146</v>
       </c>
       <c r="W7" t="n">
-        <v>454.6477016666967</v>
+        <v>1427.131369779437</v>
       </c>
       <c r="X7" t="n">
-        <v>376.2419976140245</v>
+        <v>1181.73961511285</v>
       </c>
       <c r="Y7" t="n">
-        <v>376.2419976140245</v>
+        <v>954.319944426958</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2138.847808713641</v>
+        <v>1671.54282645597</v>
       </c>
       <c r="C8" t="n">
-        <v>1742.575186729727</v>
+        <v>1637.440757679797</v>
       </c>
       <c r="D8" t="n">
-        <v>1306.665401904172</v>
+        <v>1605.571376894645</v>
       </c>
       <c r="E8" t="n">
-        <v>872.8906570624671</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F8" t="n">
-        <v>445.0232274716748</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G8" t="n">
-        <v>43.6253960949387</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>43.6253960949387</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>43.6253960949387</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>478.8800835478565</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>932.3871866441451</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>932.3871866441451</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>932.3871866441451</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>932.3871866441451</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="O8" t="n">
-        <v>932.3871866441451</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="P8" t="n">
-        <v>1472.251463319011</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="Q8" t="n">
-        <v>2012.115739993878</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2181.269804746935</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2181.269804746935</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2181.269804746935</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2181.269804746935</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>2181.269804746935</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>2180.454754198372</v>
+        <v>1713.149771940701</v>
       </c>
       <c r="X8" t="n">
-        <v>2165.352694818087</v>
+        <v>1698.047712560416</v>
       </c>
       <c r="Y8" t="n">
-        <v>2161.106975158144</v>
+        <v>1693.801992900473</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>549.7971410862315</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>443.3406799228738</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>348.2503910694271</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>254.1299763963808</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>170.7461380125424</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>85.36104827872623</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>43.6253960949387</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>69.6890692553963</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>394.2473942216086</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>394.2473942216086</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>394.2473942216086</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>394.2473942216086</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>394.2473942216086</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>509.9638261296752</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1049.828102804541</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1589.692379479408</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1706.865157573748</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1643.409720022131</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1513.231076352732</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1336.894529352701</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1137.7770114147</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>952.4542571478939</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>797.5868213867739</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>671.1010421659946</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>610.6272239451412</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>438.0655124283661</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>272.1875196298888</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>272.1875196298888</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>272.1875196298888</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>272.1875196298888</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>132.2853453202634</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>43.6253960949387</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>130.2050812596285</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>404.9635358307642</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>823.1734175987252</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1282.657284779638</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1724.916087937283</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>2144.585337163064</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2181.269804746935</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2181.269804746935</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2159.851983452307</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2000.610614750303</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1754.731168328758</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1754.731168328758</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1467.775660199189</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1195.74925578548</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="X10" t="n">
-        <v>950.357501118893</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>722.9378304330012</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2424.53612414606</v>
+        <v>2294.193217903702</v>
       </c>
       <c r="C11" t="n">
-        <v>1986.393651329483</v>
+        <v>1856.050745087125</v>
       </c>
       <c r="D11" t="n">
-        <v>1550.483866503928</v>
+        <v>1420.140960261569</v>
       </c>
       <c r="E11" t="n">
-        <v>1116.709121662223</v>
+        <v>986.3662154198646</v>
       </c>
       <c r="F11" t="n">
-        <v>688.8416920714308</v>
+        <v>558.4987858290724</v>
       </c>
       <c r="G11" t="n">
-        <v>357.2625543806409</v>
+        <v>387.1136476054616</v>
       </c>
       <c r="H11" t="n">
-        <v>68.13239982385714</v>
+        <v>97.98349304867786</v>
       </c>
       <c r="I11" t="n">
-        <v>68.13239982385714</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J11" t="n">
-        <v>68.13239982385714</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K11" t="n">
-        <v>902.4826917820352</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L11" t="n">
-        <v>1745.621139602267</v>
+        <v>1598.092425557443</v>
       </c>
       <c r="M11" t="n">
-        <v>1745.621139602267</v>
+        <v>2755.140260767994</v>
       </c>
       <c r="N11" t="n">
-        <v>1745.621139602267</v>
+        <v>3880.871244204441</v>
       </c>
       <c r="O11" t="n">
-        <v>2588.759587422499</v>
+        <v>3880.871244204441</v>
       </c>
       <c r="P11" t="n">
-        <v>3406.619991192857</v>
+        <v>4709.181119037837</v>
       </c>
       <c r="Q11" t="n">
-        <v>3406.619991192857</v>
+        <v>4709.181119037837</v>
       </c>
       <c r="R11" t="n">
-        <v>3406.619991192857</v>
+        <v>4878.335183790893</v>
       </c>
       <c r="S11" t="n">
-        <v>3322.968117376694</v>
+        <v>4794.68330997473</v>
       </c>
       <c r="T11" t="n">
-        <v>3102.900890249733</v>
+        <v>4574.616082847769</v>
       </c>
       <c r="U11" t="n">
-        <v>2843.678587566749</v>
+        <v>4315.393780164785</v>
       </c>
       <c r="V11" t="n">
-        <v>2843.678587566749</v>
+        <v>3952.776830098612</v>
       </c>
       <c r="W11" t="n">
-        <v>2843.678587566749</v>
+        <v>3547.921375509645</v>
       </c>
       <c r="X11" t="n">
-        <v>2424.53612414606</v>
+        <v>3128.778912088956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2424.53612414606</v>
+        <v>2720.492788388609</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>574.3041448151499</v>
+        <v>603.7384486671107</v>
       </c>
       <c r="C12" t="n">
-        <v>467.8476836517922</v>
+        <v>497.2819875037529</v>
       </c>
       <c r="D12" t="n">
-        <v>372.7573947983455</v>
+        <v>402.1916986503062</v>
       </c>
       <c r="E12" t="n">
-        <v>278.6369801252992</v>
+        <v>308.0712839772599</v>
       </c>
       <c r="F12" t="n">
-        <v>195.2531417414608</v>
+        <v>224.6874455934215</v>
       </c>
       <c r="G12" t="n">
-        <v>109.8680520076447</v>
+        <v>139.3023558596054</v>
       </c>
       <c r="H12" t="n">
-        <v>68.13239982385714</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I12" t="n">
-        <v>68.13239982385714</v>
+        <v>123.6303768362755</v>
       </c>
       <c r="J12" t="n">
-        <v>392.6907247900695</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K12" t="n">
-        <v>392.6907247900695</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L12" t="n">
-        <v>392.6907247900695</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M12" t="n">
-        <v>392.6907247900695</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N12" t="n">
-        <v>392.6907247900695</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O12" t="n">
-        <v>392.6907247900695</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P12" t="n">
-        <v>1073.460444576251</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q12" t="n">
-        <v>1614.199383208326</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="R12" t="n">
-        <v>1731.372161302666</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="S12" t="n">
-        <v>1667.916723751049</v>
+        <v>1697.35102760301</v>
       </c>
       <c r="T12" t="n">
-        <v>1537.738080081651</v>
+        <v>1567.172383933611</v>
       </c>
       <c r="U12" t="n">
-        <v>1361.401533081619</v>
+        <v>1390.83583693358</v>
       </c>
       <c r="V12" t="n">
-        <v>1162.284015143618</v>
+        <v>1191.718318995579</v>
       </c>
       <c r="W12" t="n">
-        <v>976.9612608768123</v>
+        <v>1006.395564728773</v>
       </c>
       <c r="X12" t="n">
-        <v>822.0938251156923</v>
+        <v>851.5281289676531</v>
       </c>
       <c r="Y12" t="n">
-        <v>695.6080458949131</v>
+        <v>725.0423497468738</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>918.6284369007883</v>
+        <v>1136.702707219792</v>
       </c>
       <c r="C13" t="n">
-        <v>746.0667253840132</v>
+        <v>964.140995703017</v>
       </c>
       <c r="D13" t="n">
-        <v>580.1887325855359</v>
+        <v>798.2630029045397</v>
       </c>
       <c r="E13" t="n">
-        <v>410.4307288362733</v>
+        <v>628.5049991552769</v>
       </c>
       <c r="F13" t="n">
-        <v>233.7236747980295</v>
+        <v>451.7979451170331</v>
       </c>
       <c r="G13" t="n">
-        <v>68.13239982385714</v>
+        <v>326.128827210768</v>
       </c>
       <c r="H13" t="n">
-        <v>68.13239982385714</v>
+        <v>186.2266529011425</v>
       </c>
       <c r="I13" t="n">
-        <v>68.13239982385714</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J13" t="n">
-        <v>154.712084988547</v>
+        <v>184.1463888405077</v>
       </c>
       <c r="K13" t="n">
-        <v>429.4705395596826</v>
+        <v>458.9048434116433</v>
       </c>
       <c r="L13" t="n">
-        <v>847.6804213276437</v>
+        <v>877.1147251796043</v>
       </c>
       <c r="M13" t="n">
-        <v>1307.164288508557</v>
+        <v>1336.598592360517</v>
       </c>
       <c r="N13" t="n">
-        <v>1749.423091666201</v>
+        <v>1778.857395518162</v>
       </c>
       <c r="O13" t="n">
-        <v>2169.092340891983</v>
+        <v>2198.526644743943</v>
       </c>
       <c r="P13" t="n">
-        <v>2516.599234862325</v>
+        <v>2546.033538714285</v>
       </c>
       <c r="Q13" t="n">
-        <v>2684.792009726657</v>
+        <v>2714.226313578617</v>
       </c>
       <c r="R13" t="n">
-        <v>2684.792009726657</v>
+        <v>2692.808492283989</v>
       </c>
       <c r="S13" t="n">
-        <v>2525.550641024653</v>
+        <v>2692.808492283989</v>
       </c>
       <c r="T13" t="n">
-        <v>2420.673394262428</v>
+        <v>2446.929045862444</v>
       </c>
       <c r="U13" t="n">
-        <v>2142.240393515533</v>
+        <v>2168.496045115549</v>
       </c>
       <c r="V13" t="n">
-        <v>1855.284885385963</v>
+        <v>1881.54053698598</v>
       </c>
       <c r="W13" t="n">
-        <v>1583.258480972255</v>
+        <v>1609.514132572271</v>
       </c>
       <c r="X13" t="n">
-        <v>1337.866726305667</v>
+        <v>1364.122377905684</v>
       </c>
       <c r="Y13" t="n">
-        <v>1110.447055619775</v>
+        <v>1136.702707219792</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2627364873769</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1632.322702740236</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>1632.322702740236</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N14" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5358,19 +5358,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
         <v>1107.588885023173</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C16" t="n">
-        <v>920.0973401405613</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D16" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E16" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
         <v>102.2608402707796</v>
@@ -5461,25 +5461,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T16" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U16" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V16" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W16" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X16" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y16" t="n">
-        <v>1284.477670376324</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5522,7 +5522,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5546,19 +5546,19 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477067</v>
+        <v>949.5782250957709</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309316</v>
+        <v>777.0165135789958</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324543</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831916</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>267.8521152449476</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5677,46 +5677,46 @@
         <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745698</v>
       </c>
       <c r="M19" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130891</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.801834709346</v>
+        <v>2451.62318245741</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962451</v>
+        <v>2173.190181710515</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832882</v>
+        <v>1886.234673580946</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419173</v>
+        <v>1614.208269167237</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.995166752586</v>
+        <v>1368.81651450065</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066694</v>
+        <v>1141.396843814758</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5738,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5756,37 +5756,37 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
@@ -5795,7 +5795,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>875.5388337745584</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>702.9771222577833</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>702.9771222577833</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>533.2191185085205</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5914,46 +5914,46 @@
         <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745701</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955483</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113128</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338909</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878955</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176952</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755407</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2099.150790389303</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1812.195282259733</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1540.168877846025</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1294.777123179437</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1067.357452493545</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>1057.634124109936</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>885.0724125931612</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674088</v>
+        <v>719.1944197946839</v>
       </c>
       <c r="E25" t="n">
-        <v>673.121292818146</v>
+        <v>549.4364160454211</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>372.7293620071773</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>207.138087033005</v>
       </c>
       <c r="H25" t="n">
         <v>190.9207894961043</v>
@@ -6148,7 +6148,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
         <v>881.8088617745661</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176948</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U25" t="n">
-        <v>2292.381813755403</v>
+        <v>2281.246080724681</v>
       </c>
       <c r="V25" t="n">
-        <v>2005.426305625833</v>
+        <v>1994.290572595111</v>
       </c>
       <c r="W25" t="n">
-        <v>1733.399901212125</v>
+        <v>1722.264168181403</v>
       </c>
       <c r="X25" t="n">
-        <v>1488.008146545538</v>
+        <v>1476.872413514815</v>
       </c>
       <c r="Y25" t="n">
-        <v>1260.588475859646</v>
+        <v>1249.452742828923</v>
       </c>
     </row>
     <row r="26">
@@ -6233,7 +6233,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477109</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309358</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2451.623182457406</v>
+        <v>2543.461783934675</v>
       </c>
       <c r="U28" t="n">
-        <v>2173.190181710511</v>
+        <v>2265.02878318778</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="29">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674088</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>673.121292818146</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2117.975449367836</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954128</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601649</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6835,22 +6835,22 @@
         <v>1066.521048992528</v>
       </c>
       <c r="C34" t="n">
-        <v>910.3590448886289</v>
+        <v>910.3590448886287</v>
       </c>
       <c r="D34" t="n">
-        <v>760.8807595030278</v>
+        <v>760.8807595030275</v>
       </c>
       <c r="E34" t="n">
-        <v>607.5224631666412</v>
+        <v>607.5224631666409</v>
       </c>
       <c r="F34" t="n">
-        <v>447.2151165412736</v>
+        <v>447.2151165412733</v>
       </c>
       <c r="G34" t="n">
-        <v>298.0235489799774</v>
+        <v>298.0235489799771</v>
       </c>
       <c r="H34" t="n">
-        <v>174.5210820832282</v>
+        <v>174.5210820832277</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6889,7 +6889,7 @@
         <v>2470.16776187691</v>
       </c>
       <c r="U34" t="n">
-        <v>2208.134468542892</v>
+        <v>2208.134468542891</v>
       </c>
       <c r="V34" t="n">
         <v>1937.578667826198</v>
@@ -6898,7 +6898,7 @@
         <v>1681.951970825366</v>
       </c>
       <c r="X34" t="n">
-        <v>1452.959923571655</v>
+        <v>1452.959923571654</v>
       </c>
       <c r="Y34" t="n">
         <v>1241.939960298639</v>
@@ -7072,22 +7072,22 @@
         <v>1066.521048992528</v>
       </c>
       <c r="C37" t="n">
-        <v>910.3590448886291</v>
+        <v>910.3590448886287</v>
       </c>
       <c r="D37" t="n">
-        <v>760.8807595030279</v>
+        <v>760.8807595030275</v>
       </c>
       <c r="E37" t="n">
-        <v>607.5224631666413</v>
+        <v>607.5224631666409</v>
       </c>
       <c r="F37" t="n">
-        <v>447.2151165412736</v>
+        <v>447.2151165412733</v>
       </c>
       <c r="G37" t="n">
-        <v>298.0235489799774</v>
+        <v>298.0235489799771</v>
       </c>
       <c r="H37" t="n">
-        <v>174.5210820832281</v>
+        <v>174.5210820832282</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7108,16 +7108,16 @@
         <v>1863.918298289923</v>
       </c>
       <c r="O37" t="n">
-        <v>2299.660900751065</v>
+        <v>2299.660900751064</v>
       </c>
       <c r="P37" t="n">
-        <v>2663.241147956767</v>
+        <v>2663.241147956766</v>
       </c>
       <c r="Q37" t="n">
-        <v>2847.507276056459</v>
+        <v>2847.507276056458</v>
       </c>
       <c r="R37" t="n">
-        <v>2842.489162174707</v>
+        <v>2842.489162174706</v>
       </c>
       <c r="S37" t="n">
         <v>2699.647500885579</v>
@@ -7126,7 +7126,7 @@
         <v>2470.16776187691</v>
       </c>
       <c r="U37" t="n">
-        <v>2208.134468542892</v>
+        <v>2208.134468542891</v>
       </c>
       <c r="V37" t="n">
         <v>1937.578667826198</v>
@@ -7135,7 +7135,7 @@
         <v>1681.951970825366</v>
       </c>
       <c r="X37" t="n">
-        <v>1452.959923571655</v>
+        <v>1452.959923571654</v>
       </c>
       <c r="Y37" t="n">
         <v>1241.939960298639</v>
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C38" t="n">
         <v>2003.64811180301</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E38" t="n">
         <v>1166.762996961502</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835856</v>
       </c>
       <c r="G38" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J38" t="n">
         <v>532.8213911287357</v>
@@ -7178,40 +7178,40 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L38" t="n">
-        <v>2442.231649339773</v>
+        <v>2177.324623035296</v>
       </c>
       <c r="M38" t="n">
-        <v>2442.231649339773</v>
+        <v>3334.372458245846</v>
       </c>
       <c r="N38" t="n">
-        <v>2442.231649339773</v>
+        <v>3334.372458245846</v>
       </c>
       <c r="O38" t="n">
-        <v>3334.372458245844</v>
+        <v>3334.372458245846</v>
       </c>
       <c r="P38" t="n">
-        <v>4162.68233307924</v>
+        <v>4162.682333079242</v>
       </c>
       <c r="Q38" t="n">
-        <v>4709.181119037835</v>
+        <v>4709.181119037837</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790891</v>
+        <v>4878.335183790893</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V38" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X38" t="n">
         <v>3227.177156566212</v>
@@ -7245,13 +7245,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362754</v>
+        <v>123.6303768362755</v>
       </c>
       <c r="J39" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K39" t="n">
         <v>1102.894748428211</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936678</v>
+        <v>905.6649082936667</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080667</v>
+        <v>756.1866229080656</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716801</v>
+        <v>602.828326571679</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463125</v>
+        <v>442.5209799463113</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850162</v>
+        <v>293.3294123850151</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882663</v>
+        <v>169.8269454882658</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
@@ -7348,7 +7348,7 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q40" t="n">
         <v>2842.813139461496</v>
@@ -7363,19 +7363,19 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V40" t="n">
         <v>1932.884531231236</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835848</v>
+        <v>755.2952747835856</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197248</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581717</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J41" t="n">
-        <v>532.8213911287357</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="K41" t="n">
-        <v>1367.171683086914</v>
+        <v>540.3167323207291</v>
       </c>
       <c r="L41" t="n">
-        <v>2354.192791675538</v>
+        <v>1615.376698573589</v>
       </c>
       <c r="M41" t="n">
-        <v>2354.192791675538</v>
+        <v>2772.424533784139</v>
       </c>
       <c r="N41" t="n">
-        <v>2354.192791675538</v>
+        <v>3898.155517220586</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245844</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.68233307924</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037835</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790891</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V41" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="42">
@@ -7482,13 +7482,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I42" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K42" t="n">
         <v>1102.894748428211</v>
@@ -7546,16 +7546,16 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936673</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080661</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E43" t="n">
         <v>602.8283265716796</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463119</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G43" t="n">
         <v>293.3294123850158</v>
@@ -7564,22 +7564,22 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J43" t="n">
         <v>200.2197420758676</v>
       </c>
       <c r="K43" t="n">
-        <v>491.0515498823631</v>
+        <v>491.0515498823634</v>
       </c>
       <c r="L43" t="n">
-        <v>925.334784885684</v>
+        <v>925.3347848856844</v>
       </c>
       <c r="M43" t="n">
         <v>1400.892005301957</v>
       </c>
       <c r="N43" t="n">
-        <v>1859.224161694961</v>
+        <v>1859.224161694962</v>
       </c>
       <c r="O43" t="n">
         <v>2294.966764156103</v>
@@ -7591,13 +7591,13 @@
         <v>2842.813139461497</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S43" t="n">
         <v>2694.953364290617</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U43" t="n">
         <v>2203.44033194793</v>
@@ -7625,7 +7625,7 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D44" t="n">
         <v>1584.13803439033</v>
@@ -7634,16 +7634,16 @@
         <v>1166.762996961501</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835856</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J44" t="n">
         <v>532.8213911287357</v>
@@ -7652,46 +7652,46 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L44" t="n">
-        <v>2354.192791675538</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M44" t="n">
-        <v>2354.192791675538</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N44" t="n">
-        <v>2354.192791675538</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O44" t="n">
-        <v>3334.372458245844</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.68233307924</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037835</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790891</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V44" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X44" t="n">
         <v>3227.177156566212</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="45">
@@ -7719,13 +7719,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I45" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K45" t="n">
         <v>1102.894748428211</v>
@@ -7783,25 +7783,25 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936672</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080661</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716794</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F46" t="n">
-        <v>442.5209799463119</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850157</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882663</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J46" t="n">
         <v>200.2197420758674</v>
@@ -7825,7 +7825,7 @@
         <v>2658.547011361804</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R46" t="n">
         <v>2837.795025579745</v>
@@ -7834,16 +7834,16 @@
         <v>2694.953364290617</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U46" t="n">
         <v>2203.44033194793</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230404</v>
+        <v>1677.257834230405</v>
       </c>
       <c r="X46" t="n">
         <v>1448.265786976693</v>
@@ -7976,11 +7976,11 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
@@ -7988,16 +7988,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>56.52305090189834</v>
       </c>
       <c r="L4" t="n">
-        <v>369.8475292559658</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.4167745482895</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.3343479384976</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8231,10 +8231,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.4167745482896</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,7 +8295,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8380,19 +8380,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>169.501940596796</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,7 +8453,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>458.0879829255441</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,16 +8462,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="P8" t="n">
-        <v>545.3174511867337</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>545.3174511867337</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>116.8852847556228</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>545.3174511867337</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>545.3174511867337</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8626,10 +8626,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>37.05501776148549</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>851.6549977982143</v>
+        <v>233.2532752227571</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>851.6549977982143</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>826.1216199700584</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,13 +8763,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>687.6461816022033</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8924,19 +8924,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>459.5978749662599</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9170,10 +9170,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9404,13 +9404,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10826,16 +10826,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>818.3363029781635</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>901.1523322283551</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>447.2222511564761</v>
       </c>
       <c r="L41" t="n">
-        <v>996.9910187763885</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>996.9910187763885</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -22544,16 +22544,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>172.7853315883289</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22607,10 +22607,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>69.1205067490867</v>
+        <v>227.7125662215941</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>39.52293549722815</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>139.5921776627264</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-7.978386276044685e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.0953302292553</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>61.36294431725108</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627213</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>84.34995760698268</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.4236523045825</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>122.4480280049976</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>69.71657238081409</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>3.146865729424007</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>102.9863699957342</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>6.110667527536862e-13</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>868960.6152087981</v>
+        <v>689950.0477369234</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>868960.6152087981</v>
+        <v>878933.7790326517</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>873925.0921226508</v>
+        <v>878937.816854932</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>662551.3797634499</v>
+        <v>853158.4683205961</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>883556.18773517</v>
+        <v>883556.1877351701</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>883556.1877351701</v>
+        <v>883556.18773517</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>883556.1877351701</v>
+        <v>883556.18773517</v>
       </c>
     </row>
     <row r="10">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>73935.71792839099</v>
+      </c>
+      <c r="C2" t="n">
         <v>93825.7809808215</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>93825.78098082151</v>
       </c>
-      <c r="D2" t="n">
-        <v>93825.7809808215</v>
-      </c>
       <c r="E2" t="n">
-        <v>69137.97812413936</v>
+        <v>89028.04117656982</v>
       </c>
       <c r="F2" t="n">
-        <v>92200.07722403668</v>
+        <v>92200.07722403666</v>
       </c>
       <c r="G2" t="n">
-        <v>92200.07722403671</v>
+        <v>92200.07722403666</v>
       </c>
       <c r="H2" t="n">
-        <v>92200.07722403666</v>
+        <v>92200.07722403664</v>
       </c>
       <c r="I2" t="n">
-        <v>92200.07722403666</v>
+        <v>92200.07722403665</v>
       </c>
       <c r="J2" t="n">
         <v>92200.07722403665</v>
       </c>
       <c r="K2" t="n">
-        <v>92200.07722403664</v>
+        <v>92200.07722403666</v>
       </c>
       <c r="L2" t="n">
         <v>93825.78098082147</v>
       </c>
       <c r="M2" t="n">
+        <v>93825.78098082145</v>
+      </c>
+      <c r="N2" t="n">
+        <v>93825.78098082148</v>
+      </c>
+      <c r="O2" t="n">
         <v>93825.78098082147</v>
       </c>
-      <c r="N2" t="n">
-        <v>93825.78098082151</v>
-      </c>
-      <c r="O2" t="n">
-        <v>93825.78098082154</v>
-      </c>
       <c r="P2" t="n">
-        <v>93825.78098082148</v>
+        <v>93825.78098082147</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26366,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>78545.2414452449</v>
       </c>
       <c r="D3" t="n">
-        <v>37592.93764066507</v>
+        <v>30.57595066340842</v>
       </c>
       <c r="E3" t="n">
-        <v>91465.65199216266</v>
+        <v>164835.5352679186</v>
       </c>
       <c r="F3" t="n">
-        <v>122233.5690936864</v>
+        <v>16812.40227510018</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>62571.54417370998</v>
       </c>
       <c r="L3" t="n">
-        <v>43618.04443367879</v>
+        <v>13013.48053938585</v>
       </c>
       <c r="M3" t="n">
-        <v>76340.54196576742</v>
+        <v>137577.7007378521</v>
       </c>
       <c r="N3" t="n">
-        <v>90115.69674436469</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193696.6796511644</v>
+        <v>128824.7189580073</v>
       </c>
       <c r="C4" t="n">
-        <v>193696.6796511644</v>
+        <v>148028.6837897737</v>
       </c>
       <c r="D4" t="n">
-        <v>170963.9024542694</v>
+        <v>148010.1942457892</v>
       </c>
       <c r="E4" t="n">
-        <v>40914.22029588901</v>
+        <v>52684.68919743957</v>
       </c>
       <c r="F4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="G4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="H4" t="n">
-        <v>54561.82510962277</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="I4" t="n">
         <v>54561.82510962276</v>
@@ -26451,13 +26451,13 @@
         <v>59904.18292625602</v>
       </c>
       <c r="N4" t="n">
-        <v>68372.72551926991</v>
+        <v>68372.72551926989</v>
       </c>
       <c r="O4" t="n">
         <v>68372.72551926989</v>
       </c>
       <c r="P4" t="n">
-        <v>68372.72551926989</v>
+        <v>68372.72551926988</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74206.53989253601</v>
       </c>
       <c r="D5" t="n">
-        <v>66782.9010321534</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>51780.62386613143</v>
+        <v>74150.69479362157</v>
       </c>
       <c r="F5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26503,13 @@
         <v>79083.15853826067</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.6147260897</v>
+        <v>75515.61472608973</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.6147260897</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.6147260897</v>
+        <v>75515.61472608971</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-301486.9874672752</v>
+        <v>-256789.2335844405</v>
       </c>
       <c r="C6" t="n">
-        <v>-159295.6868075652</v>
+        <v>-206954.6841467331</v>
       </c>
       <c r="D6" t="n">
-        <v>-181513.9601462664</v>
+        <v>-128427.5137773888</v>
       </c>
       <c r="E6" t="n">
-        <v>-115022.5180300437</v>
+        <v>-202711.4172224707</v>
       </c>
       <c r="F6" t="n">
-        <v>-162313.555585065</v>
+        <v>-56915.61310586145</v>
       </c>
       <c r="G6" t="n">
-        <v>-40079.98649137857</v>
+        <v>-40103.21083076126</v>
       </c>
       <c r="H6" t="n">
-        <v>-40079.98649137862</v>
+        <v>-40103.21083076129</v>
       </c>
       <c r="I6" t="n">
-        <v>-40079.98649137862</v>
+        <v>-40103.21083076127</v>
       </c>
       <c r="J6" t="n">
-        <v>-151094.4518363688</v>
+        <v>-151117.6761757515</v>
       </c>
       <c r="K6" t="n">
-        <v>-40079.98649137864</v>
+        <v>-102674.7550044712</v>
       </c>
       <c r="L6" t="n">
-        <v>-88779.60491737402</v>
+        <v>-58175.04102308108</v>
       </c>
       <c r="M6" t="n">
-        <v>-121502.1024494626</v>
+        <v>-182739.2612215473</v>
       </c>
       <c r="N6" t="n">
-        <v>-140178.2560089028</v>
+        <v>-50062.55926453814</v>
       </c>
       <c r="O6" t="n">
-        <v>-50062.55926453804</v>
+        <v>-50062.55926453814</v>
       </c>
       <c r="P6" t="n">
-        <v>-50062.5592645381</v>
+        <v>-50062.55926453813</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="3">
@@ -26790,13 +26790,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.4167745482896</v>
       </c>
       <c r="D4" t="n">
-        <v>545.3174511867337</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>851.6549977982143</v>
+        <v>1219.583795947723</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>243.1209170281853</v>
       </c>
       <c r="D4" t="n">
-        <v>121.0215936666293</v>
+        <v>0.09843205956735801</v>
       </c>
       <c r="E4" t="n">
-        <v>306.3375466114806</v>
+        <v>552.0685893398663</v>
       </c>
       <c r="F4" t="n">
-        <v>426.6055055865311</v>
+        <v>58.67670743702206</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>243.1209170281853</v>
       </c>
       <c r="L4" t="n">
-        <v>121.0215936666293</v>
+        <v>0.09843205956735801</v>
       </c>
       <c r="M4" t="n">
-        <v>306.3375466114806</v>
+        <v>552.0685893398663</v>
       </c>
       <c r="N4" t="n">
-        <v>367.9287981495086</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>243.1209170281853</v>
       </c>
       <c r="L4" t="n">
-        <v>121.0215936666293</v>
+        <v>0.09843205956735801</v>
       </c>
       <c r="M4" t="n">
-        <v>306.3375466114806</v>
+        <v>552.0685893398663</v>
       </c>
       <c r="N4" t="n">
-        <v>426.6055055865311</v>
+        <v>58.67670743702206</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>172.5212945945564</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
-      </c>
-      <c r="C2" t="n">
-        <v>9.465190568306582</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.254829457195569</v>
-      </c>
-      <c r="E2" t="n">
-        <v>400</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>312.628740158986</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,7 +27540,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>50.18480931949111</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>188.1170189734589</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -27619,16 +27619,16 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>113.7278999628232</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27667,22 +27667,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>42.10473273465601</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>103.5373418681632</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>165.3161901077762</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27853,10 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>41.45115232433659</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>369.7677262526162</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>78.71293210881583</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,13 +28017,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28065,16 +28065,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>117.7661826744371</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-5.236039842985613e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874765</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874771</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
   </sheetData>
@@ -34696,11 +34696,11 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
@@ -34708,16 +34708,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>56.52305090189834</v>
       </c>
       <c r="L4" t="n">
-        <v>369.8475292559658</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.4167745482895</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.3343479384976</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34951,10 +34951,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.4167745482896</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,13 +35009,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,19 +35100,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>169.501940596796</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>458.0879829255441</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,16 +35182,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="P8" t="n">
-        <v>545.3174511867337</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>545.3174511867337</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,13 +35246,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>116.8852847556228</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>545.3174511867337</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>545.3174511867337</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>37.05501776148549</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>851.6549977982143</v>
+        <v>233.2532752227571</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>851.6549977982143</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>826.1216199700584</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>687.6461816022033</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512938</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>459.5978749662599</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35890,10 +35890,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -36045,16 +36045,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080452</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36124,13 +36124,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36282,7 +36282,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080456</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36519,7 +36519,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36601,10 +36601,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>103.6899377778281</v>
+        <v>103.689937777828</v>
       </c>
       <c r="K34" t="n">
         <v>293.7695028348439</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>103.6899377778281</v>
+        <v>103.689937777828</v>
       </c>
       <c r="K37" t="n">
         <v>293.7695028348439</v>
@@ -37476,13 +37476,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,16 +37546,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>818.3363029781635</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>901.1523322283551</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
@@ -37622,7 +37622,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37713,13 +37713,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.1274021209001</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>447.2222511564761</v>
       </c>
       <c r="L41" t="n">
-        <v>996.9910187763885</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>103.6899377778281</v>
+        <v>103.689937777828</v>
       </c>
       <c r="K43" t="n">
-        <v>293.7695028348439</v>
+        <v>293.7695028348443</v>
       </c>
       <c r="L43" t="n">
         <v>438.6699343467889</v>
       </c>
       <c r="M43" t="n">
-        <v>480.3608287033061</v>
+        <v>480.360828703306</v>
       </c>
       <c r="N43" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900419</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>996.9910187763885</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38032,13 +38032,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>367.2527749552542</v>
       </c>
       <c r="Q46" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
